--- a/CS5110 - Project_Schedule_Timeline.xlsx
+++ b/CS5110 - Project_Schedule_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpatel\Desktop\Linkdin_Job_ANalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ECC34B-90D0-429F-BEA5-0E2B3C202762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6B85B-6A96-4816-AE17-1A444E337336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule (Template View" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>PROJECT SCHEDULE TEMPLATE</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Name</t>
@@ -439,7 +433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,12 +456,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFDDEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -514,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -528,13 +516,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,23 +826,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -867,39 +853,39 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -917,10 +903,10 @@
       </c>
       <c r="F7" s="4">
         <f>IFERROR(COUNTIF(F9:F101,"Complete")/COUNTA(A9:A101),0)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -943,12 +929,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>115</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7">
         <v>45971</v>
@@ -961,18 +947,18 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>45974</v>
@@ -985,18 +971,18 @@
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
         <v>45971</v>
@@ -1009,18 +995,18 @@
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>45978</v>
@@ -1032,19 +1018,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
+      <c r="F12" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>45981</v>
@@ -1056,19 +1042,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
+      <c r="F13" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>45985</v>
@@ -1080,19 +1066,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
+      <c r="F14" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
         <v>45985</v>
@@ -1104,19 +1090,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>14</v>
+      <c r="F15" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C16" s="7">
         <v>45992</v>
@@ -1128,19 +1114,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>14</v>
+      <c r="F16" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>45992</v>
@@ -1152,19 +1138,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>14</v>
+      <c r="F17" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
         <v>45999</v>
@@ -1176,19 +1162,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>14</v>
+      <c r="F18" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7">
         <v>46001</v>
@@ -1200,19 +1186,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>14</v>
+      <c r="F19" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7">
         <v>46005</v>
@@ -1224,11 +1210,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
+      <c r="F20" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1247,66 +1233,66 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1322,172 +1308,172 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1503,110 +1489,110 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/CS5110 - Project_Schedule_Timeline.xlsx
+++ b/CS5110 - Project_Schedule_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpatel\Desktop\Linkdin_Job_ANalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6B85B-6A96-4816-AE17-1A444E337336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975838D1-431D-428B-97A3-F7774B4AA89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,9 +335,6 @@
     <t>Endpoint returns structured JSON</t>
   </si>
   <si>
-    <t>Streamlit/Plotly Dashboard (skills/region/salary)</t>
-  </si>
-  <si>
     <t>Top skills, locations &amp; salary distributions</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>FastAPI endpoint for inference; React Frontend UI; Plotly dashboards (skills, salary, hotspots); demo dataset.</t>
+  </si>
+  <si>
+    <t>Dashboard (skills/region/salary)</t>
   </si>
 </sst>
 </file>
@@ -420,16 +420,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -826,9 +829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -931,7 +934,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>24</v>
@@ -947,15 +950,15 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
@@ -971,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -995,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>94</v>
@@ -1019,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>96</v>
@@ -1027,7 +1030,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>16</v>
@@ -1043,10 +1046,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1067,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>98</v>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>18</v>
@@ -1091,18 +1094,18 @@
         <v>7</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C16" s="7">
         <v>45992</v>
@@ -1115,15 +1118,15 @@
         <v>5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>18</v>
@@ -1139,15 +1142,15 @@
         <v>7</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>67</v>
@@ -1156,65 +1159,65 @@
         <v>45999</v>
       </c>
       <c r="D18" s="7">
-        <v>46003</v>
+        <v>45999</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="7">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="D19" s="7">
-        <v>46004</v>
+        <v>45999</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="7">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="D20" s="7">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1409,7 +1412,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>

--- a/CS5110 - Project_Schedule_Timeline.xlsx
+++ b/CS5110 - Project_Schedule_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpatel\Desktop\Linkdin_Job_ANalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975838D1-431D-428B-97A3-F7774B4AA89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA9989-DD92-4360-AD79-926533401CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>

--- a/CS5110 - Project_Schedule_Timeline.xlsx
+++ b/CS5110 - Project_Schedule_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpatel\Desktop\Linkdin_Job_ANalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA9989-DD92-4360-AD79-926533401CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE4DC9-D422-47E2-8919-3CE4369B4152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
